--- a/Original Excel Files/PJ.xlsx
+++ b/Original Excel Files/PJ.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D9E2D6-50B0-4749-A7B4-D0CA95C42411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="32310" yWindow="3525" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,8 +133,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -255,6 +256,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -264,6 +266,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -312,7 +317,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -345,9 +350,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,6 +402,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -555,35 +594,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="7" max="7" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1976</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1">
       <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
@@ -591,15 +633,29 @@
       <c r="C6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="11">
+      <c r="F6" s="11">
         <v>1976</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1976</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1">
       <c r="A8" s="12" t="s">
         <v>15</v>
       </c>
@@ -607,14 +663,14 @@
       <c r="C8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="13">
+      <c r="F8" s="13">
         <v>1946</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="G8" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1">
       <c r="A9" s="12" t="s">
         <v>18</v>
       </c>
@@ -622,275 +678,289 @@
       <c r="C9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="13">
+      <c r="F9" s="13">
         <v>2000</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A10" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="B10" s="15"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1949</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1">
       <c r="A11" s="12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="13">
-        <v>1949</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="F11" s="13">
+        <v>1969</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="G13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="13">
-        <v>1969</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="F14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A15" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C15" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="5" t="s">
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="16">
+        <v>1973</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="16">
+        <v>1971</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="5" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="13">
-        <v>1973</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="13">
-        <v>1971</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="12" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="13">
+      <c r="F19" s="16">
         <v>1994</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="G19" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
+    <row r="20" spans="1:7">
+      <c r="A20" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="12" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="13">
+      <c r="F20" s="16">
         <v>1975</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="G20" s="14" t="s">
         <v>36</v>
       </c>
     </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1"/>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:I39">
+    <sortCondition ref="A1:A39"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
